--- a/Day 1 Classwork.xlsx
+++ b/Day 1 Classwork.xlsx
@@ -425,19 +425,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -523,7 +521,10 @@
         <f>SUM(C2:C5)</f>
         <v>220</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <f>SUM(D2:D5)</f>
+        <v>730</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -537,7 +538,10 @@
         <f>AVERAGE(C2:C5)</f>
         <v>55</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <f>AVERAGE(D2:D6)</f>
+        <v>292</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -550,7 +554,9 @@
       <c r="C8" s="2">
         <v>30</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>30</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -563,7 +569,9 @@
       <c r="C9" s="2">
         <v>80</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>160</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
